--- a/Termie/bin/Debug/log.xlsx
+++ b/Termie/bin/Debug/log.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,64 +406,64 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1.41</v>
+        <v>0.216</v>
       </c>
       <c r="B2">
-        <v>-3.3300001174211502E-2</v>
+        <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C2">
-        <v>10996.5419921875</v>
+        <v>10989.91796875</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1.669</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="B3">
-        <v>-3.3300001174211502E-2</v>
+        <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C3">
-        <v>10996.5439453125</v>
+        <v>10989.890625</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1.9279999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="B4">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C4">
-        <v>10996.5517578125</v>
+        <v>10989.908203125</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>2.1859999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="B5">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C5">
-        <v>10996.4814453125</v>
+        <v>10989.9140625</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -474,13 +474,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>2.4449999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="B6">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C6">
-        <v>10996.587890625</v>
+        <v>10989.9521484375</v>
       </c>
       <c r="D6">
         <v>120</v>
@@ -491,13 +491,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>2.7040000000000002</v>
+        <v>1.5089999999999999</v>
       </c>
       <c r="B7">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C7">
-        <v>10996.599609375</v>
+        <v>10989.8828125</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -508,13 +508,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>2.9620000000000002</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="B8">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C8">
-        <v>10996.6123046875</v>
+        <v>10989.9267578125</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>3.2210000000000001</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="B9">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C9">
-        <v>10996.52734375</v>
+        <v>10989.912109375</v>
       </c>
       <c r="D9">
         <v>120</v>
@@ -542,13 +542,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>3.48</v>
+        <v>2.2839999999999998</v>
       </c>
       <c r="B10">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C10">
-        <v>10996.552734375</v>
+        <v>10989.9296875</v>
       </c>
       <c r="D10">
         <v>120</v>
@@ -559,18 +559,664 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>3.738</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="B11">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C11">
-        <v>10996.5185546875</v>
+        <v>10989.8876953125</v>
       </c>
       <c r="D11">
         <v>120</v>
       </c>
       <c r="E11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="B12">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C12">
+        <v>10989.939453125</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>3.06</v>
+      </c>
+      <c r="B13">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C13">
+        <v>10989.9345703125</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="B14">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C14">
+        <v>10989.8994140625</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3.577</v>
+      </c>
+      <c r="B15">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C15">
+        <v>10989.890625</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3.835</v>
+      </c>
+      <c r="B16">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C16">
+        <v>10989.8447265625</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4.093</v>
+      </c>
+      <c r="B17">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C17">
+        <v>10989.9970703125</v>
+      </c>
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="B18">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C18">
+        <v>10990.04296875</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>4.6109999999999998</v>
+      </c>
+      <c r="B19">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C19">
+        <v>10990.0595703125</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="B20">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C20">
+        <v>10990.01171875</v>
+      </c>
+      <c r="D20">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>5.1269999999999998</v>
+      </c>
+      <c r="B21">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C21">
+        <v>10990.041015625</v>
+      </c>
+      <c r="D21">
+        <v>120</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>5.3860000000000001</v>
+      </c>
+      <c r="B22">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C22">
+        <v>10990.091796875</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>5.6449999999999996</v>
+      </c>
+      <c r="B23">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C23">
+        <v>10990.0908203125</v>
+      </c>
+      <c r="D23">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>5.9029999999999996</v>
+      </c>
+      <c r="B24">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C24">
+        <v>10990.07421875</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>6.1619999999999999</v>
+      </c>
+      <c r="B25">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C25">
+        <v>10990.0576171875</v>
+      </c>
+      <c r="D25">
+        <v>120</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>6.4210000000000003</v>
+      </c>
+      <c r="B26">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C26">
+        <v>10989.97265625</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>6.6790000000000003</v>
+      </c>
+      <c r="B27">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C27">
+        <v>10989.9970703125</v>
+      </c>
+      <c r="D27">
+        <v>120</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="B28">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C28">
+        <v>10990.0478515625</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>7.1959999999999997</v>
+      </c>
+      <c r="B29">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C29">
+        <v>10989.9736328125</v>
+      </c>
+      <c r="D29">
+        <v>120</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>7.4550000000000001</v>
+      </c>
+      <c r="B30">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C30">
+        <v>10989.984375</v>
+      </c>
+      <c r="D30">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="B31">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C31">
+        <v>10990.021484375</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>7.9720000000000004</v>
+      </c>
+      <c r="B32">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C32">
+        <v>10990.115234375</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>8.23</v>
+      </c>
+      <c r="B33">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C33">
+        <v>10990.1904296875</v>
+      </c>
+      <c r="D33">
+        <v>90</v>
+      </c>
+      <c r="E33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>8.4890000000000008</v>
+      </c>
+      <c r="B34">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C34">
+        <v>10990.09765625</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>8.7469999999999999</v>
+      </c>
+      <c r="B35">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C35">
+        <v>10990.171875</v>
+      </c>
+      <c r="D35">
+        <v>120</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>9.0060000000000002</v>
+      </c>
+      <c r="B36">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C36">
+        <v>10990.21484375</v>
+      </c>
+      <c r="D36">
+        <v>120</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>9.2650000000000006</v>
+      </c>
+      <c r="B37">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C37">
+        <v>10990.087890625</v>
+      </c>
+      <c r="D37">
+        <v>120</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>9.5229999999999997</v>
+      </c>
+      <c r="B38">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C38">
+        <v>10990.1435546875</v>
+      </c>
+      <c r="D38">
+        <v>120</v>
+      </c>
+      <c r="E38">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>9.782</v>
+      </c>
+      <c r="B39">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C39">
+        <v>10990.1484375</v>
+      </c>
+      <c r="D39">
+        <v>120</v>
+      </c>
+      <c r="E39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="B40">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C40">
+        <v>10990.1748046875</v>
+      </c>
+      <c r="D40">
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>10.298999999999999</v>
+      </c>
+      <c r="B41">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C41">
+        <v>10990.087890625</v>
+      </c>
+      <c r="D41">
+        <v>120</v>
+      </c>
+      <c r="E41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>10.558</v>
+      </c>
+      <c r="B42">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C42">
+        <v>10990.087890625</v>
+      </c>
+      <c r="D42">
+        <v>120</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>10.817</v>
+      </c>
+      <c r="B43">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C43">
+        <v>10990.072265625</v>
+      </c>
+      <c r="D43">
+        <v>120</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>11.074999999999999</v>
+      </c>
+      <c r="B44">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C44">
+        <v>10990.0263671875</v>
+      </c>
+      <c r="D44">
+        <v>120</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>11.334</v>
+      </c>
+      <c r="B45">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C45">
+        <v>10990.0703125</v>
+      </c>
+      <c r="D45">
+        <v>120</v>
+      </c>
+      <c r="E45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>11.592000000000001</v>
+      </c>
+      <c r="B46">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C46">
+        <v>10990.0380859375</v>
+      </c>
+      <c r="D46">
+        <v>120</v>
+      </c>
+      <c r="E46">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>11.85</v>
+      </c>
+      <c r="B47">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C47">
+        <v>10990.0341796875</v>
+      </c>
+      <c r="D47">
+        <v>120</v>
+      </c>
+      <c r="E47">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>12.109</v>
+      </c>
+      <c r="B48">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C48">
+        <v>10989.97265625</v>
+      </c>
+      <c r="D48">
+        <v>120</v>
+      </c>
+      <c r="E48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>12.367000000000001</v>
+      </c>
+      <c r="B49">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C49">
+        <v>10990.05859375</v>
+      </c>
+      <c r="D49">
+        <v>120</v>
+      </c>
+      <c r="E49">
         <v>120</v>
       </c>
     </row>

--- a/Termie/bin/Debug/log.xlsx
+++ b/Termie/bin/Debug/log.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,13 +406,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>0.216</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="B2">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C2">
-        <v>10989.91796875</v>
+        <v>10990.609375</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -423,13 +423,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0.47599999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="B3">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C3">
-        <v>10989.890625</v>
+        <v>10990.59765625</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -440,13 +440,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>0.73299999999999998</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="B4">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C4">
-        <v>10989.908203125</v>
+        <v>10990.5107421875</v>
       </c>
       <c r="D4">
         <v>120</v>
@@ -457,13 +457,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>0.99199999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="B5">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C5">
-        <v>10989.9140625</v>
+        <v>10990.6201171875</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -474,81 +474,81 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1.25</v>
+        <v>1.135</v>
       </c>
       <c r="B6">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C6">
-        <v>10989.9521484375</v>
+        <v>10990.609375</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1.5089999999999999</v>
+        <v>1.3939999999999999</v>
       </c>
       <c r="B7">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C7">
-        <v>10989.8828125</v>
+        <v>10990.5595703125</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1.7669999999999999</v>
+        <v>1.653</v>
       </c>
       <c r="B8">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C8">
-        <v>10989.9267578125</v>
+        <v>10990.59765625</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2.0259999999999998</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="B9">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C9">
-        <v>10989.912109375</v>
+        <v>10990.5673828125</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2.2839999999999998</v>
+        <v>2.173</v>
       </c>
       <c r="B10">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C10">
-        <v>10989.9296875</v>
+        <v>10990.6572265625</v>
       </c>
       <c r="D10">
         <v>120</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>2.5430000000000001</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="B11">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C11">
-        <v>10989.8876953125</v>
+        <v>10990.72265625</v>
       </c>
       <c r="D11">
         <v>120</v>
@@ -576,13 +576,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2.8010000000000002</v>
+        <v>2.6880000000000002</v>
       </c>
       <c r="B12">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C12">
-        <v>10989.939453125</v>
+        <v>10990.6728515625</v>
       </c>
       <c r="D12">
         <v>120</v>
@@ -593,13 +593,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>3.06</v>
+        <v>2.9460000000000002</v>
       </c>
       <c r="B13">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C13">
-        <v>10989.9345703125</v>
+        <v>10990.708984375</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -610,13 +610,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>3.3180000000000001</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="B14">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C14">
-        <v>10989.8994140625</v>
+        <v>10990.689453125</v>
       </c>
       <c r="D14">
         <v>120</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>3.577</v>
+        <v>3.464</v>
       </c>
       <c r="B15">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C15">
-        <v>10989.890625</v>
+        <v>10990.69140625</v>
       </c>
       <c r="D15">
         <v>120</v>
@@ -644,13 +644,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>3.835</v>
+        <v>3.722</v>
       </c>
       <c r="B16">
-        <v>-1.6599999740719795E-2</v>
+        <v>-3.3300001174211502E-2</v>
       </c>
       <c r="C16">
-        <v>10989.8447265625</v>
+        <v>10990.7275390625</v>
       </c>
       <c r="D16">
         <v>120</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>4.093</v>
+        <v>3.9809999999999999</v>
       </c>
       <c r="B17">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C17">
-        <v>10989.9970703125</v>
+        <v>10990.587890625</v>
       </c>
       <c r="D17">
         <v>120</v>
@@ -678,13 +678,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>4.3520000000000003</v>
+        <v>4.24</v>
       </c>
       <c r="B18">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C18">
-        <v>10990.04296875</v>
+        <v>10990.6572265625</v>
       </c>
       <c r="D18">
         <v>120</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>4.6109999999999998</v>
+        <v>4.4980000000000002</v>
       </c>
       <c r="B19">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C19">
-        <v>10990.0595703125</v>
+        <v>10990.6376953125</v>
       </c>
       <c r="D19">
         <v>120</v>
@@ -712,13 +712,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>4.8689999999999998</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="B20">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C20">
-        <v>10990.01171875</v>
+        <v>10990.6904296875</v>
       </c>
       <c r="D20">
         <v>120</v>
@@ -729,13 +729,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>5.1269999999999998</v>
+        <v>5.016</v>
       </c>
       <c r="B21">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C21">
-        <v>10990.041015625</v>
+        <v>10990.640625</v>
       </c>
       <c r="D21">
         <v>120</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>5.3860000000000001</v>
+        <v>5.274</v>
       </c>
       <c r="B22">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C22">
-        <v>10990.091796875</v>
+        <v>10990.515625</v>
       </c>
       <c r="D22">
         <v>120</v>
@@ -763,13 +763,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>5.6449999999999996</v>
+        <v>5.5330000000000004</v>
       </c>
       <c r="B23">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C23">
-        <v>10990.0908203125</v>
+        <v>10990.5341796875</v>
       </c>
       <c r="D23">
         <v>120</v>
@@ -780,13 +780,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>5.9029999999999996</v>
+        <v>5.7919999999999998</v>
       </c>
       <c r="B24">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C24">
-        <v>10990.07421875</v>
+        <v>10990.6611328125</v>
       </c>
       <c r="D24">
         <v>120</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>6.1619999999999999</v>
+        <v>6.05</v>
       </c>
       <c r="B25">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C25">
-        <v>10990.0576171875</v>
+        <v>10990.609375</v>
       </c>
       <c r="D25">
         <v>120</v>
@@ -814,13 +814,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>6.4210000000000003</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="B26">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C26">
-        <v>10989.97265625</v>
+        <v>10990.4697265625</v>
       </c>
       <c r="D26">
         <v>120</v>
@@ -831,13 +831,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>6.6790000000000003</v>
+        <v>6.5670000000000002</v>
       </c>
       <c r="B27">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C27">
-        <v>10989.9970703125</v>
+        <v>10990.6640625</v>
       </c>
       <c r="D27">
         <v>120</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>6.9379999999999997</v>
+        <v>6.8259999999999996</v>
       </c>
       <c r="B28">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C28">
-        <v>10990.0478515625</v>
+        <v>10990.73046875</v>
       </c>
       <c r="D28">
         <v>120</v>
@@ -865,13 +865,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>7.1959999999999997</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="B29">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C29">
-        <v>10989.9736328125</v>
+        <v>10990.576171875</v>
       </c>
       <c r="D29">
         <v>120</v>
@@ -882,13 +882,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>7.4550000000000001</v>
+        <v>7.343</v>
       </c>
       <c r="B30">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C30">
-        <v>10989.984375</v>
+        <v>10990.5810546875</v>
       </c>
       <c r="D30">
         <v>120</v>
@@ -899,81 +899,81 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>7.7729999999999997</v>
+        <v>7.601</v>
       </c>
       <c r="B31">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C31">
-        <v>10990.021484375</v>
+        <v>10990.69140625</v>
       </c>
       <c r="D31">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E31">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>7.9720000000000004</v>
+        <v>7.86</v>
       </c>
       <c r="B32">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C32">
-        <v>10990.115234375</v>
+        <v>10990.71875</v>
       </c>
       <c r="D32">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>8.23</v>
+        <v>8.1180000000000003</v>
       </c>
       <c r="B33">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C33">
-        <v>10990.1904296875</v>
+        <v>10990.5830078125</v>
       </c>
       <c r="D33">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>8.4890000000000008</v>
+        <v>8.3770000000000007</v>
       </c>
       <c r="B34">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C34">
-        <v>10990.09765625</v>
+        <v>10990.69921875</v>
       </c>
       <c r="D34">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E34">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>8.7469999999999999</v>
+        <v>8.6349999999999998</v>
       </c>
       <c r="B35">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C35">
-        <v>10990.171875</v>
+        <v>10990.6162109375</v>
       </c>
       <c r="D35">
         <v>120</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>9.0060000000000002</v>
+        <v>8.8940000000000001</v>
       </c>
       <c r="B36">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C36">
-        <v>10990.21484375</v>
+        <v>10990.572265625</v>
       </c>
       <c r="D36">
         <v>120</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>9.2650000000000006</v>
+        <v>9.1519999999999992</v>
       </c>
       <c r="B37">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C37">
-        <v>10990.087890625</v>
+        <v>10990.5888671875</v>
       </c>
       <c r="D37">
         <v>120</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>9.5229999999999997</v>
+        <v>9.4109999999999996</v>
       </c>
       <c r="B38">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C38">
-        <v>10990.1435546875</v>
+        <v>10990.689453125</v>
       </c>
       <c r="D38">
         <v>120</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>9.782</v>
+        <v>9.67</v>
       </c>
       <c r="B39">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C39">
-        <v>10990.1484375</v>
+        <v>10990.59375</v>
       </c>
       <c r="D39">
         <v>120</v>
@@ -1052,13 +1052,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>10.039999999999999</v>
+        <v>9.9280000000000008</v>
       </c>
       <c r="B40">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C40">
-        <v>10990.1748046875</v>
+        <v>10990.705078125</v>
       </c>
       <c r="D40">
         <v>120</v>
@@ -1069,81 +1069,81 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>10.298999999999999</v>
+        <v>10.186999999999999</v>
       </c>
       <c r="B41">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C41">
-        <v>10990.087890625</v>
+        <v>10990.6923828125</v>
       </c>
       <c r="D41">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E41">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>10.558</v>
+        <v>10.445</v>
       </c>
       <c r="B42">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C42">
-        <v>10990.087890625</v>
+        <v>10990.634765625</v>
       </c>
       <c r="D42">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E42">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>10.817</v>
+        <v>10.704000000000001</v>
       </c>
       <c r="B43">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C43">
-        <v>10990.072265625</v>
+        <v>10990.759765625</v>
       </c>
       <c r="D43">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E43">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>11.074999999999999</v>
+        <v>10.962999999999999</v>
       </c>
       <c r="B44">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C44">
-        <v>10990.0263671875</v>
+        <v>10990.6884765625</v>
       </c>
       <c r="D44">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E44">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>11.334</v>
+        <v>11.222</v>
       </c>
       <c r="B45">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C45">
-        <v>10990.0703125</v>
+        <v>10990.708984375</v>
       </c>
       <c r="D45">
         <v>120</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>11.592000000000001</v>
+        <v>11.48</v>
       </c>
       <c r="B46">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C46">
-        <v>10990.0380859375</v>
+        <v>10990.7421875</v>
       </c>
       <c r="D46">
         <v>120</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>11.85</v>
+        <v>15.452</v>
       </c>
       <c r="B47">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C47">
-        <v>10990.0341796875</v>
+        <v>10990.6376953125</v>
       </c>
       <c r="D47">
         <v>120</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>12.109</v>
+        <v>15.452</v>
       </c>
       <c r="B48">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C48">
-        <v>10989.97265625</v>
+        <v>10990.6005859375</v>
       </c>
       <c r="D48">
         <v>120</v>
@@ -1205,18 +1205,664 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>12.367000000000001</v>
+        <v>15.638</v>
       </c>
       <c r="B49">
         <v>-1.6599999740719795E-2</v>
       </c>
       <c r="C49">
-        <v>10990.05859375</v>
+        <v>10990.4404296875</v>
       </c>
       <c r="D49">
         <v>120</v>
       </c>
       <c r="E49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>15.875</v>
+      </c>
+      <c r="B50">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C50">
+        <v>10990.5361328125</v>
+      </c>
+      <c r="D50">
+        <v>120</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>16.134</v>
+      </c>
+      <c r="B51">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C51">
+        <v>10990.4580078125</v>
+      </c>
+      <c r="D51">
+        <v>120</v>
+      </c>
+      <c r="E51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>16.393000000000001</v>
+      </c>
+      <c r="B52">
+        <v>-3.3300001174211502E-2</v>
+      </c>
+      <c r="C52">
+        <v>10990.5048828125</v>
+      </c>
+      <c r="D52">
+        <v>120</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>16.651</v>
+      </c>
+      <c r="B53">
+        <v>-3.3300001174211502E-2</v>
+      </c>
+      <c r="C53">
+        <v>10990.48828125</v>
+      </c>
+      <c r="D53">
+        <v>120</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>16.91</v>
+      </c>
+      <c r="B54">
+        <v>-5.000000074505806E-2</v>
+      </c>
+      <c r="C54">
+        <v>10990.5</v>
+      </c>
+      <c r="D54">
+        <v>120</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>17.167999999999999</v>
+      </c>
+      <c r="B55">
+        <v>-3.3300001174211502E-2</v>
+      </c>
+      <c r="C55">
+        <v>10990.5439453125</v>
+      </c>
+      <c r="D55">
+        <v>120</v>
+      </c>
+      <c r="E55">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>17.427</v>
+      </c>
+      <c r="B56">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C56">
+        <v>10990.3251953125</v>
+      </c>
+      <c r="D56">
+        <v>120</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>17.684999999999999</v>
+      </c>
+      <c r="B57">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C57">
+        <v>10990.4482421875</v>
+      </c>
+      <c r="D57">
+        <v>120</v>
+      </c>
+      <c r="E57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>17.943999999999999</v>
+      </c>
+      <c r="B58">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C58">
+        <v>10990.4033203125</v>
+      </c>
+      <c r="D58">
+        <v>120</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>18.202999999999999</v>
+      </c>
+      <c r="B59">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C59">
+        <v>10990.330078125</v>
+      </c>
+      <c r="D59">
+        <v>120</v>
+      </c>
+      <c r="E59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>18.460999999999999</v>
+      </c>
+      <c r="B60">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C60">
+        <v>10990.412109375</v>
+      </c>
+      <c r="D60">
+        <v>120</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>18.72</v>
+      </c>
+      <c r="B61">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C61">
+        <v>10990.361328125</v>
+      </c>
+      <c r="D61">
+        <v>120</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>18.983000000000001</v>
+      </c>
+      <c r="B62">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C62">
+        <v>10990.35546875</v>
+      </c>
+      <c r="D62">
+        <v>120</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>19.236999999999998</v>
+      </c>
+      <c r="B63">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C63">
+        <v>10990.3515625</v>
+      </c>
+      <c r="D63">
+        <v>120</v>
+      </c>
+      <c r="E63">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>19.495000000000001</v>
+      </c>
+      <c r="B64">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C64">
+        <v>10990.3623046875</v>
+      </c>
+      <c r="D64">
+        <v>120</v>
+      </c>
+      <c r="E64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>19.754000000000001</v>
+      </c>
+      <c r="B65">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C65">
+        <v>10990.3359375</v>
+      </c>
+      <c r="D65">
+        <v>120</v>
+      </c>
+      <c r="E65">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>20.013000000000002</v>
+      </c>
+      <c r="B66">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C66">
+        <v>10990.302734375</v>
+      </c>
+      <c r="D66">
+        <v>120</v>
+      </c>
+      <c r="E66">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>20.271000000000001</v>
+      </c>
+      <c r="B67">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C67">
+        <v>10990.26953125</v>
+      </c>
+      <c r="D67">
+        <v>90</v>
+      </c>
+      <c r="E67">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>20.53</v>
+      </c>
+      <c r="B68">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C68">
+        <v>10990.3427734375</v>
+      </c>
+      <c r="D68">
+        <v>90</v>
+      </c>
+      <c r="E68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>20.789000000000001</v>
+      </c>
+      <c r="B69">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C69">
+        <v>10990.388671875</v>
+      </c>
+      <c r="D69">
+        <v>90</v>
+      </c>
+      <c r="E69">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>20.998999999999999</v>
+      </c>
+      <c r="B70">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C70">
+        <v>10989.9052734375</v>
+      </c>
+      <c r="D70">
+        <v>120</v>
+      </c>
+      <c r="E70">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>21.241</v>
+      </c>
+      <c r="B71">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C71">
+        <v>10989.8916015625</v>
+      </c>
+      <c r="D71">
+        <v>120</v>
+      </c>
+      <c r="E71">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>21.498999999999999</v>
+      </c>
+      <c r="B72">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C72">
+        <v>10989.890625</v>
+      </c>
+      <c r="D72">
+        <v>120</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>21.757999999999999</v>
+      </c>
+      <c r="B73">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C73">
+        <v>10989.9169921875</v>
+      </c>
+      <c r="D73">
+        <v>120</v>
+      </c>
+      <c r="E73">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>22.016999999999999</v>
+      </c>
+      <c r="B74">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C74">
+        <v>10990.0107421875</v>
+      </c>
+      <c r="D74">
+        <v>120</v>
+      </c>
+      <c r="E74">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>22.396999999999998</v>
+      </c>
+      <c r="B75">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C75">
+        <v>10989.947265625</v>
+      </c>
+      <c r="D75">
+        <v>120</v>
+      </c>
+      <c r="E75">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>22.550999999999998</v>
+      </c>
+      <c r="B76">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C76">
+        <v>10989.9033203125</v>
+      </c>
+      <c r="D76">
+        <v>90</v>
+      </c>
+      <c r="E76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>22.792999999999999</v>
+      </c>
+      <c r="B77">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C77">
+        <v>10989.880859375</v>
+      </c>
+      <c r="D77">
+        <v>90</v>
+      </c>
+      <c r="E77">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>23.050999999999998</v>
+      </c>
+      <c r="B78">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C78">
+        <v>10989.953125</v>
+      </c>
+      <c r="D78">
+        <v>90</v>
+      </c>
+      <c r="E78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>23.31</v>
+      </c>
+      <c r="B79">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C79">
+        <v>10990.15625</v>
+      </c>
+      <c r="D79">
+        <v>90</v>
+      </c>
+      <c r="E79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>23.568999999999999</v>
+      </c>
+      <c r="B80">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C80">
+        <v>10990.0615234375</v>
+      </c>
+      <c r="D80">
+        <v>120</v>
+      </c>
+      <c r="E80">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>23.849</v>
+      </c>
+      <c r="B81">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C81">
+        <v>10990.0908203125</v>
+      </c>
+      <c r="D81">
+        <v>120</v>
+      </c>
+      <c r="E81">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>24.085999999999999</v>
+      </c>
+      <c r="B82">
+        <v>-3.3300001174211502E-2</v>
+      </c>
+      <c r="C82">
+        <v>10990.0185546875</v>
+      </c>
+      <c r="D82">
+        <v>120</v>
+      </c>
+      <c r="E82">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>24.344000000000001</v>
+      </c>
+      <c r="B83">
+        <v>-3.3300001174211502E-2</v>
+      </c>
+      <c r="C83">
+        <v>10989.9619140625</v>
+      </c>
+      <c r="D83">
+        <v>120</v>
+      </c>
+      <c r="E83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>24.603000000000002</v>
+      </c>
+      <c r="B84">
+        <v>-3.3300001174211502E-2</v>
+      </c>
+      <c r="C84">
+        <v>10990.0595703125</v>
+      </c>
+      <c r="D84">
+        <v>120</v>
+      </c>
+      <c r="E84">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>24.861000000000001</v>
+      </c>
+      <c r="B85">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C85">
+        <v>10990.0703125</v>
+      </c>
+      <c r="D85">
+        <v>120</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>25.12</v>
+      </c>
+      <c r="B86">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C86">
+        <v>10990.140625</v>
+      </c>
+      <c r="D86">
+        <v>120</v>
+      </c>
+      <c r="E86">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>25.378</v>
+      </c>
+      <c r="B87">
+        <v>-1.6599999740719795E-2</v>
+      </c>
+      <c r="C87">
+        <v>10989.970703125</v>
+      </c>
+      <c r="D87">
+        <v>120</v>
+      </c>
+      <c r="E87">
         <v>120</v>
       </c>
     </row>
